--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.83559218135238</v>
+        <v>5.526037</v>
       </c>
       <c r="H2">
-        <v>4.83559218135238</v>
+        <v>16.578111</v>
       </c>
       <c r="I2">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="J2">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.04717867439273</v>
+        <v>0.1082676666666667</v>
       </c>
       <c r="N2">
-        <v>3.04717867439273</v>
+        <v>0.324803</v>
       </c>
       <c r="O2">
-        <v>0.7814738367290945</v>
+        <v>0.02641792511238088</v>
       </c>
       <c r="P2">
-        <v>0.7814738367290945</v>
+        <v>0.02641792511238088</v>
       </c>
       <c r="Q2">
-        <v>14.73491337307719</v>
+        <v>0.5982911319036667</v>
       </c>
       <c r="R2">
-        <v>14.73491337307719</v>
+        <v>5.384620187133</v>
       </c>
       <c r="S2">
-        <v>0.15698246418112</v>
+        <v>0.005039854627218371</v>
       </c>
       <c r="T2">
-        <v>0.15698246418112</v>
+        <v>0.005039854627218372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.83559218135238</v>
+        <v>5.526037</v>
       </c>
       <c r="H3">
-        <v>4.83559218135238</v>
+        <v>16.578111</v>
       </c>
       <c r="I3">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="J3">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.852092844596157</v>
+        <v>3.049833</v>
       </c>
       <c r="N3">
-        <v>0.852092844596157</v>
+        <v>9.149499</v>
       </c>
       <c r="O3">
-        <v>0.2185261632709055</v>
+        <v>0.7441765605545629</v>
       </c>
       <c r="P3">
-        <v>0.2185261632709055</v>
+        <v>0.7441765605545632</v>
       </c>
       <c r="Q3">
-        <v>4.120373497115486</v>
+        <v>16.853490001821</v>
       </c>
       <c r="R3">
-        <v>4.120373497115486</v>
+        <v>151.681410016389</v>
       </c>
       <c r="S3">
-        <v>0.04389753563842546</v>
+        <v>0.1419695780885024</v>
       </c>
       <c r="T3">
-        <v>0.04389753563842546</v>
+        <v>0.1419695780885025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.421736391249301</v>
+        <v>5.526037</v>
       </c>
       <c r="H4">
-        <v>8.421736391249301</v>
+        <v>16.578111</v>
       </c>
       <c r="I4">
-        <v>0.3498554760838582</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="J4">
-        <v>0.3498554760838582</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.04717867439273</v>
+        <v>0.9401646666666666</v>
       </c>
       <c r="N4">
-        <v>3.04717867439273</v>
+        <v>2.820494</v>
       </c>
       <c r="O4">
-        <v>0.7814738367290945</v>
+        <v>0.229405514333056</v>
       </c>
       <c r="P4">
-        <v>0.7814738367290945</v>
+        <v>0.229405514333056</v>
       </c>
       <c r="Q4">
-        <v>25.66253553277206</v>
+        <v>5.195384734092666</v>
       </c>
       <c r="R4">
-        <v>25.66253553277206</v>
+        <v>46.758462606834</v>
       </c>
       <c r="S4">
-        <v>0.2734029011959366</v>
+        <v>0.04376461959077241</v>
       </c>
       <c r="T4">
-        <v>0.2734029011959366</v>
+        <v>0.04376461959077241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.421736391249301</v>
+        <v>8.502533</v>
       </c>
       <c r="H5">
-        <v>8.421736391249301</v>
+        <v>25.507599</v>
       </c>
       <c r="I5">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="J5">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.852092844596157</v>
+        <v>0.1082676666666667</v>
       </c>
       <c r="N5">
-        <v>0.852092844596157</v>
+        <v>0.324803</v>
       </c>
       <c r="O5">
-        <v>0.2185261632709055</v>
+        <v>0.02641792511238088</v>
       </c>
       <c r="P5">
-        <v>0.2185261632709055</v>
+        <v>0.02641792511238088</v>
       </c>
       <c r="Q5">
-        <v>7.17610131805859</v>
+        <v>0.9205494086663333</v>
       </c>
       <c r="R5">
-        <v>7.17610131805859</v>
+        <v>8.284944677997</v>
       </c>
       <c r="S5">
-        <v>0.07645257488792155</v>
+        <v>0.007754477627118114</v>
       </c>
       <c r="T5">
-        <v>0.07645257488792155</v>
+        <v>0.007754477627118114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.10844065294785</v>
+        <v>8.502533</v>
       </c>
       <c r="H6">
-        <v>9.10844065294785</v>
+        <v>25.507599</v>
       </c>
       <c r="I6">
-        <v>0.3783825202994658</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="J6">
-        <v>0.3783825202994658</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.04717867439273</v>
+        <v>3.049833</v>
       </c>
       <c r="N6">
-        <v>3.04717867439273</v>
+        <v>9.149499</v>
       </c>
       <c r="O6">
-        <v>0.7814738367290945</v>
+        <v>0.7441765605545629</v>
       </c>
       <c r="P6">
-        <v>0.7814738367290945</v>
+        <v>0.7441765605545632</v>
       </c>
       <c r="Q6">
-        <v>27.75504611463448</v>
+        <v>25.931305726989</v>
       </c>
       <c r="R6">
-        <v>27.75504611463448</v>
+        <v>233.381751542901</v>
       </c>
       <c r="S6">
-        <v>0.295696039889648</v>
+        <v>0.2184388238250249</v>
       </c>
       <c r="T6">
-        <v>0.295696039889648</v>
+        <v>0.2184388238250249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.10844065294785</v>
+        <v>8.502533</v>
       </c>
       <c r="H7">
-        <v>9.10844065294785</v>
+        <v>25.507599</v>
       </c>
       <c r="I7">
-        <v>0.3783825202994658</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="J7">
-        <v>0.3783825202994658</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.852092844596157</v>
+        <v>0.9401646666666666</v>
       </c>
       <c r="N7">
-        <v>0.852092844596157</v>
+        <v>2.820494</v>
       </c>
       <c r="O7">
-        <v>0.2185261632709055</v>
+        <v>0.229405514333056</v>
       </c>
       <c r="P7">
-        <v>0.2185261632709055</v>
+        <v>0.229405514333056</v>
       </c>
       <c r="Q7">
-        <v>7.761237105805611</v>
+        <v>7.993781103767333</v>
       </c>
       <c r="R7">
-        <v>7.761237105805611</v>
+        <v>71.94402993390599</v>
       </c>
       <c r="S7">
-        <v>0.08268648040981776</v>
+        <v>0.06733760962928569</v>
       </c>
       <c r="T7">
-        <v>0.08268648040981776</v>
+        <v>0.06733760962928569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.70627470961718</v>
+        <v>10.61443666666667</v>
       </c>
       <c r="H8">
-        <v>1.70627470961718</v>
+        <v>31.84331</v>
       </c>
       <c r="I8">
-        <v>0.07088200379713054</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="J8">
-        <v>0.07088200379713054</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.04717867439273</v>
+        <v>0.1082676666666667</v>
       </c>
       <c r="N8">
-        <v>3.04717867439273</v>
+        <v>0.324803</v>
       </c>
       <c r="O8">
-        <v>0.7814738367290945</v>
+        <v>0.02641792511238088</v>
       </c>
       <c r="P8">
-        <v>0.7814738367290945</v>
+        <v>0.02641792511238088</v>
       </c>
       <c r="Q8">
-        <v>5.199323907801118</v>
+        <v>1.149200290881111</v>
       </c>
       <c r="R8">
-        <v>5.199323907801118</v>
+        <v>10.34280261793</v>
       </c>
       <c r="S8">
-        <v>0.05539243146238985</v>
+        <v>0.00968057538337444</v>
       </c>
       <c r="T8">
-        <v>0.05539243146238985</v>
+        <v>0.009680575383374442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.61443666666667</v>
+      </c>
+      <c r="H9">
+        <v>31.84331</v>
+      </c>
+      <c r="I9">
+        <v>0.3664396557335078</v>
+      </c>
+      <c r="J9">
+        <v>0.3664396557335078</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.049833</v>
+      </c>
+      <c r="N9">
+        <v>9.149499</v>
+      </c>
+      <c r="O9">
+        <v>0.7441765605545629</v>
+      </c>
+      <c r="P9">
+        <v>0.7441765605545632</v>
+      </c>
+      <c r="Q9">
+        <v>32.37225922241</v>
+      </c>
+      <c r="R9">
+        <v>291.35033300169</v>
+      </c>
+      <c r="S9">
+        <v>0.27269580265456</v>
+      </c>
+      <c r="T9">
+        <v>0.2726958026545601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.70627470961718</v>
-      </c>
-      <c r="H9">
-        <v>1.70627470961718</v>
-      </c>
-      <c r="I9">
-        <v>0.07088200379713054</v>
-      </c>
-      <c r="J9">
-        <v>0.07088200379713054</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.852092844596157</v>
-      </c>
-      <c r="N9">
-        <v>0.852092844596157</v>
-      </c>
-      <c r="O9">
-        <v>0.2185261632709055</v>
-      </c>
-      <c r="P9">
-        <v>0.2185261632709055</v>
-      </c>
-      <c r="Q9">
-        <v>1.453904470980184</v>
-      </c>
-      <c r="R9">
-        <v>1.453904470980184</v>
-      </c>
-      <c r="S9">
-        <v>0.01548957233474069</v>
-      </c>
-      <c r="T9">
-        <v>0.01548957233474069</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.61443666666667</v>
+      </c>
+      <c r="H10">
+        <v>31.84331</v>
+      </c>
+      <c r="I10">
+        <v>0.3664396557335078</v>
+      </c>
+      <c r="J10">
+        <v>0.3664396557335078</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9401646666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.820494</v>
+      </c>
+      <c r="O10">
+        <v>0.229405514333056</v>
+      </c>
+      <c r="P10">
+        <v>0.229405514333056</v>
+      </c>
+      <c r="Q10">
+        <v>9.979318310571111</v>
+      </c>
+      <c r="R10">
+        <v>89.81386479513999</v>
+      </c>
+      <c r="S10">
+        <v>0.08406327769557334</v>
+      </c>
+      <c r="T10">
+        <v>0.08406327769557335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.323390666666667</v>
+      </c>
+      <c r="H11">
+        <v>12.970172</v>
+      </c>
+      <c r="I11">
+        <v>0.1492553808785702</v>
+      </c>
+      <c r="J11">
+        <v>0.1492553808785702</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1082676666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.324803</v>
+      </c>
+      <c r="O11">
+        <v>0.02641792511238088</v>
+      </c>
+      <c r="P11">
+        <v>0.02641792511238088</v>
+      </c>
+      <c r="Q11">
+        <v>0.4680834195684445</v>
+      </c>
+      <c r="R11">
+        <v>4.212750776116001</v>
+      </c>
+      <c r="S11">
+        <v>0.003943017474669954</v>
+      </c>
+      <c r="T11">
+        <v>0.003943017474669953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.323390666666667</v>
+      </c>
+      <c r="H12">
+        <v>12.970172</v>
+      </c>
+      <c r="I12">
+        <v>0.1492553808785702</v>
+      </c>
+      <c r="J12">
+        <v>0.1492553808785702</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.049833</v>
+      </c>
+      <c r="N12">
+        <v>9.149499</v>
+      </c>
+      <c r="O12">
+        <v>0.7441765605545629</v>
+      </c>
+      <c r="P12">
+        <v>0.7441765605545632</v>
+      </c>
+      <c r="Q12">
+        <v>13.185619527092</v>
+      </c>
+      <c r="R12">
+        <v>118.670575743828</v>
+      </c>
+      <c r="S12">
+        <v>0.1110723559864757</v>
+      </c>
+      <c r="T12">
+        <v>0.1110723559864757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.323390666666667</v>
+      </c>
+      <c r="H13">
+        <v>12.970172</v>
+      </c>
+      <c r="I13">
+        <v>0.1492553808785702</v>
+      </c>
+      <c r="J13">
+        <v>0.1492553808785702</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9401646666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.820494</v>
+      </c>
+      <c r="O13">
+        <v>0.229405514333056</v>
+      </c>
+      <c r="P13">
+        <v>0.229405514333056</v>
+      </c>
+      <c r="Q13">
+        <v>4.064699144996445</v>
+      </c>
+      <c r="R13">
+        <v>36.58229230496801</v>
+      </c>
+      <c r="S13">
+        <v>0.03424000741742458</v>
+      </c>
+      <c r="T13">
+        <v>0.03424000741742458</v>
       </c>
     </row>
   </sheetData>
